--- a/biology/Médecine/Daoyin_yangsheng_gong/Daoyin_yangsheng_gong.xlsx
+++ b/biology/Médecine/Daoyin_yangsheng_gong/Daoyin_yangsheng_gong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daoyin yangsheng gong (導引養生功) est une gymnastique traditionnelle de santé, une méthode de daoyin créée par le professeur Zhang Guangde (张广德) de l’Université des sports de Pékin. 
 Reconnue en Chine, à la fois par le Ministère des Sports, le Ministère de la Santé, mais également par l'Association chinoise de wushu et la Chinese Health Qigong Association, cette méthode est enseignée dans les universités de sports dont celle de Pékin et les universités de médecine traditionnelle chinoise.
@@ -512,9 +524,11 @@
           <t>Son but</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le professeur Zhang, son but est de fortifier la santé et de prolonger la vie (yangsheng). Son caractère particulier réside dans l'effort personnel que lui consacre celui qui le pratique, en combinant énergie vitale (qi 气), intention (yi 意) et mouvement (xing 行), dans un entraînement régulier à la fois physique et psychique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le professeur Zhang, son but est de fortifier la santé et de prolonger la vie (yangsheng). Son caractère particulier réside dans l'effort personnel que lui consacre celui qui le pratique, en combinant énergie vitale (qi 气), intention (yi 意) et mouvement (xing 行), dans un entraînement régulier à la fois physique et psychique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une succession d'enchaînements de mouvements lents et continus. Chaque série comprend huit mouvements décomposés en huit phases (8 x 8) qu'on évitera de trop rapprocher aux 64 modalités de l'énergie telle qu'elle figure dans les 64 hexagrammes  六十四卦 du Yijing 易经 ; ce choix étant au minimum symbolique. Sa pratique, qui se veut régulière, journalière voir plus selon les pathologies, s'appuie sur la souplesse du mouvement associée à une respiration abdominale, lente, profonde, ténue et ininterrompue, guidée par l'intention (yi). 
 Ses caractéristiques sont la combinaison du mouvement, de la respiration et de la concentration sur des points d’acupuncture ou des méridiens ainsi que mouvements de torsion en spirale pour stimuler les points situés aux poignets et aux chevilles. Le corps reste souple et détendu pendant tout l'exercice : les tensions sont progressives et ne durent qu'un bref instant; la détente du corps se différencie d'un "lâcher prise". Les mouvements s'enchaînent harmonieusement sans à coup ni arrêt.
@@ -577,9 +593,11 @@
           <t>La méthode</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La théorie principale repose sur les concepts de yin et yang 阴阳, wuxing (cinq mouvements 五行), de zangfu [2] (脏腑 : cinq organes trésors 五脏 et six viscères ateliers 六腑), de jingluo (les méridiens d'acupuncture 经络), de qi (气 l'énergie), de xue (血 le sang) et  de jinye (les liquides organiques 津液) et plus globalement de la médecine et des arts martiaux chinois (wushu 武术).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La théorie principale repose sur les concepts de yin et yang 阴阳, wuxing (cinq mouvements 五行), de zangfu  (脏腑 : cinq organes trésors 五脏 et six viscères ateliers 六腑), de jingluo (les méridiens d'acupuncture 经络), de qi (气 l'énergie), de xue (血 le sang) et  de jinye (les liquides organiques 津液) et plus globalement de la médecine et des arts martiaux chinois (wushu 武术).
 la méthode comprend deux systèmes :
 Le daoyin yangsheng gong (导引养生功) comprend plus de soixante dix formes (enchaînements) que l’on peut choisir pour la prévention et pour complément thérapeutique. Parmi ces formes :
 Daoyin Baojian Gong – 导引保健功 : Daoyin pour préserver la santé (2 séries);
@@ -647,10 +665,12 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les maladies du système respiratoire, la bronchite. Une des causes en est le blocage du méridien du Poumon, le blocage du Qi et la stase sanguine. Dégager le méridien du Poumon, éliminer le blocage du Qi et disperser les stases de sang constituent le principe à l’origine du mouvement dans l’enchaînement pour le Poumon.
-En dehors du soin des méridiens associés  du Poumon et du Gros Intestin, il faut aussi prêter attention à la Rate et au Rein. En effet, selon la théorie des Wuxing, la rate correspond à la terre, le poumon au métal. La terre est la «mère» du métal et peut donc aider le poumon. En tonifiant la rate, on renforce le poumon c’est un principe important dans le soin du trouble respiratoire. C’est pourquoi dans Yi Qi Yang Fei Gong (enchaînement pour nourrir le Qi et tonifier le Poumon)[3] il existe des mouvements pour tonifier la Rate. L'enchaînement pour la Rate peut être associé à l’enchaînement du Poumon afin d’agir sur les problèmes respiratoires.
+En dehors du soin des méridiens associés  du Poumon et du Gros Intestin, il faut aussi prêter attention à la Rate et au Rein. En effet, selon la théorie des Wuxing, la rate correspond à la terre, le poumon au métal. La terre est la «mère» du métal et peut donc aider le poumon. En tonifiant la rate, on renforce le poumon c’est un principe important dans le soin du trouble respiratoire. C’est pourquoi dans Yi Qi Yang Fei Gong (enchaînement pour nourrir le Qi et tonifier le Poumon) il existe des mouvements pour tonifier la Rate. L'enchaînement pour la Rate peut être associé à l’enchaînement du Poumon afin d’agir sur les problèmes respiratoires.
 Depuis 1974, il est devenu  un des qi gong les plus populaires en Chine et dans le monde. Le professeur Zhang Guang De a enseigné sa méthode dans plus de trente pays avec le souci de le rendre accessible à tous, bien portants, personnes âgées, malades.
 </t>
         </is>
